--- a/biology/Zoologie/Diprion_de_LeConte/Diprion_de_LeConte.xlsx
+++ b/biology/Zoologie/Diprion_de_LeConte/Diprion_de_LeConte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neodiprion lecontei
 Neodiprion lecontei, le diprion de LeConte, est une espèce d'insectes hyménoptères symphytes dont les larves attaquent diverses espèces de jeunes pins (pin rouge, pin gris, pin sylvestre) et dont les dégâts, lorsque les larves sont en grand nombre, peuvent entraîner la mort de l'arbre.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle est noir avec des antennes plumeuses. Il mesure 5 à 6 mm. La femelle a la tête et le thorax brun rouge. Elle mesure de 6 à 9,5 mm.
 </t>
